--- a/mdictpro/version/MDictPro_Version.xlsx
+++ b/mdictpro/version/MDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Phiên bản đầu tiên</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Trạng thái thay đổi</t>
@@ -115,23 +112,21 @@
     <t>Giảm độ nhạy của tính năng Gesture</t>
   </si>
   <si>
+    <t>Thêm hướng dẫn sử dụng</t>
+  </si>
+  <si>
+    <t>Hỗ trợ xoay màn hình và lưu trữ thông tin khi xoay màn hình (Hỗ trợ cho 04 màn hình chính và màn hinh Favourite).</t>
+  </si>
+  <si>
+    <t>Sửa TranslatorActivity giống WNDictPro. Đặc biệt hỗ trợ nhiều ngôn ngữ khác nhau.</t>
+  </si>
+  <si>
+    <t>13/10/2013</t>
+  </si>
+  <si>
     <t>Dữ liệu:
- - Dữ liệu ngữ pháp tiếng anh thừa Bài xx: Tên bài</t>
-  </si>
-  <si>
-    <t>Thêm hướng dẫn sử dụng</t>
-  </si>
-  <si>
-    <t>Hỗ trợ xoay màn hình và lưu trữ thông tin khi xoay màn hình (Hỗ trợ cho 04 màn hình chính và màn hinh Favourite).</t>
-  </si>
-  <si>
-    <t>Sửa TranslatorActivity giống WNDictPro. Đặc biệt hỗ trợ nhiều ngôn ngữ khác nhau.</t>
-  </si>
-  <si>
-    <t>OK (Cần thêm xâu hướng dẫn)</t>
-  </si>
-  <si>
-    <t>OK chưa test được</t>
+ - Dữ liệu ngữ pháp tiếng anh thừa Bài xx: Tên bài
+ - Một số dữ liệu trước để XML là version 1.1 nhưng build thì lại lại dữ liệu 1.0</t>
   </si>
 </sst>
 </file>
@@ -292,6 +287,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,9 +315,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -618,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -633,13 +628,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -655,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -666,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>5</v>
@@ -674,219 +669,221 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="23">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
       <c r="B6" s="9">
         <v>1.3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="15">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="14">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="18">
+        <v>5</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="19"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="19"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45">
+      <c r="A13" s="19"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="105">
+      <c r="A14" s="19"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="75">
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="23">
-        <v>4</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="17">
-        <v>5</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="18"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="12" t="s">
+      <c r="E15" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60">
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="19"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="19"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="105">
+      <c r="A19" s="19"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30">
+      <c r="A20" s="19"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="19"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60">
+      <c r="A22" s="19"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="18"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="18"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="105">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="75">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="60">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="18"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="18"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="105">
-      <c r="A19" s="18"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="18"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="18"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="12" t="s">
+      <c r="E22" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="20"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" ht="30">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5">

--- a/mdictpro/version/MDictPro_Version.xlsx
+++ b/mdictpro/version/MDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Thêm chức năng đánh giá ứng dụng</t>
-  </si>
-  <si>
-    <t>1.7</t>
   </si>
   <si>
     <t>Sửa chức năng download dữ liệu qua sử dụng HTTP</t>
@@ -127,6 +124,21 @@
     <t>Dữ liệu:
  - Dữ liệu ngữ pháp tiếng anh thừa Bài xx: Tên bài
  - Một số dữ liệu trước để XML là version 1.1 nhưng build thì lại lại dữ liệu 1.0</t>
+  </si>
+  <si>
+    <t>Thêm tính năng tự động cập nhật khi có phiên bản mới.</t>
+  </si>
+  <si>
+    <t>Thêm tính năng cho người dùng có thể xem các ứng dụng khác của cùng tác giả</t>
+  </si>
+  <si>
+    <t>Thêm tính năng chia sẻ!</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>30/11/2013</t>
   </si>
 </sst>
 </file>
@@ -252,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -290,6 +302,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,6 +331,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="A29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -628,13 +655,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -682,13 +709,13 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="16">
+      <c r="A7" s="17">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -699,9 +726,9 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
@@ -727,70 +754,70 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="18">
+      <c r="A10" s="19">
         <v>5</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="19"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="19"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="19"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="105">
-      <c r="A14" s="19"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="75">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="12" t="s">
         <v>8</v>
       </c>
@@ -799,113 +826,131 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="105">
+      <c r="A19" s="20"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="19"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="105">
-      <c r="A19" s="19"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="E19" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="19"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="19"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="20"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60">
+      <c r="A22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="60">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="12" t="s">
+      <c r="E23" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="25">
+        <v>6</v>
+      </c>
+      <c r="B24" s="25">
+        <v>1.9</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="20"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="8"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8"/>
@@ -1062,7 +1107,10 @@
       <c r="E48" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B7:B8"/>

--- a/mdictpro/version/MDictPro_Version.xlsx
+++ b/mdictpro/version/MDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>STT</t>
   </si>
@@ -139,6 +139,27 @@
   </si>
   <si>
     <t>30/11/2013</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Sửa lỗi không thoát được trên một số dòng máy</t>
+  </si>
+  <si>
+    <t>Hỗ trợ quảng cáo StartApp</t>
+  </si>
+  <si>
+    <t>Sửa lỗi chỉ hiển thị ảnh ở từ điển chỉnh, các từ điển liên quan không hiển thị được.</t>
+  </si>
+  <si>
+    <t>Sửa lại phần About (Giới thiệu)</t>
+  </si>
+  <si>
+    <t>Loại bỏ scroll ngang trong phần hiển thị nghĩa</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
   </si>
 </sst>
 </file>
@@ -264,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -305,6 +326,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -331,18 +370,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="A29:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -655,13 +682,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -709,13 +736,13 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="17">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -726,9 +753,9 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
@@ -754,13 +781,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="19">
+      <c r="A10" s="25">
         <v>5</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -771,9 +798,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="20"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="12" t="s">
         <v>30</v>
       </c>
@@ -782,9 +809,9 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="20"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
@@ -793,9 +820,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="12" t="s">
         <v>29</v>
       </c>
@@ -804,9 +831,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="105">
-      <c r="A14" s="20"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
@@ -815,9 +842,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="75">
-      <c r="A15" s="20"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="12" t="s">
         <v>8</v>
       </c>
@@ -826,9 +853,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60">
-      <c r="A16" s="20"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="12" t="s">
         <v>23</v>
       </c>
@@ -837,9 +864,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="20"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="12" t="s">
         <v>20</v>
       </c>
@@ -848,9 +875,9 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="12" t="s">
         <v>22</v>
       </c>
@@ -859,9 +886,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105">
-      <c r="A19" s="20"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="12" t="s">
         <v>24</v>
       </c>
@@ -870,9 +897,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="20"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="20"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="12" t="s">
         <v>26</v>
       </c>
@@ -881,9 +908,9 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="20"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="12" t="s">
         <v>27</v>
       </c>
@@ -892,9 +919,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="60">
-      <c r="A22" s="20"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="12" t="s">
         <v>32</v>
       </c>
@@ -903,9 +930,9 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="12" t="s">
         <v>28</v>
       </c>
@@ -914,13 +941,13 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="25">
+      <c r="A24" s="21">
         <v>6</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="21">
         <v>1.9</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -931,9 +958,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="30">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="15" t="s">
         <v>34</v>
       </c>
@@ -942,9 +969,9 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="15" t="s">
         <v>35</v>
       </c>
@@ -953,39 +980,65 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="21">
+        <v>7</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="8"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30">
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="8"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8"/>
@@ -1107,10 +1160,7 @@
       <c r="E48" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A24:A26"/>
+  <mergeCells count="13">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B7:B8"/>
@@ -1118,6 +1168,12 @@
     <mergeCell ref="C10:C23"/>
     <mergeCell ref="B10:B23"/>
     <mergeCell ref="A10:A23"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/mdictpro/version/MDictPro_Version.xlsx
+++ b/mdictpro/version/MDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -161,12 +161,39 @@
   <si>
     <t>12/01/2014</t>
   </si>
+  <si>
+    <t>Hỗ trợ ẩn hiện nghĩa các từ điển</t>
+  </si>
+  <si>
+    <t>Hỗ trợ note các từ và tự động hiển thị note khi tra từ</t>
+  </si>
+  <si>
+    <t>Hỗ trợ các link http và https</t>
+  </si>
+  <si>
+    <t>Bỏ nút Icon Help đi</t>
+  </si>
+  <si>
+    <t>Tự động lấy thông tin dữ liệu về khi vào "Data Manager"</t>
+  </si>
+  <si>
+    <t>Trong form text note tự động focus vào Note</t>
+  </si>
+  <si>
+    <t>Fix lỗi khi download dữ liệu mới về, sau đó về form Quản lý dữ liệu, rồi về menu chính ở màn hình ngang bị lỗi load từ (Hiển thị kí tự loằng ngoằng)</t>
+  </si>
+  <si>
+    <t>Hỗ trợ dấu xuống dòng</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +218,11 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -285,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -370,6 +402,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1042,58 +1089,90 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="8">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="C32" s="8"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="8"/>
+      <c r="D34" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="D35" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="8"/>
+      <c r="D36" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="C37" s="8"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="D37" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="45">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5">

--- a/mdictpro/version/MDictPro_Version.xlsx
+++ b/mdictpro/version/MDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -180,13 +180,40 @@
     <t>Trong form text note tự động focus vào Note</t>
   </si>
   <si>
-    <t>Fix lỗi khi download dữ liệu mới về, sau đó về form Quản lý dữ liệu, rồi về menu chính ở màn hình ngang bị lỗi load từ (Hiển thị kí tự loằng ngoằng)</t>
-  </si>
-  <si>
     <t>Hỗ trợ dấu xuống dòng</t>
   </si>
   <si>
     <t>2.2.1</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>Bỏ hiển thị hộp thoại confirm trước khi vào form download dữ liệu trong trường hợp không có dữ liệu. Luôn luôn thực hiện lấy dữ liệu về khi có mạng, nếu không có mạng sẽ thông báo để người dùng bật mạng.</t>
+  </si>
+  <si>
+    <t>Fix lỗi khi download dữ liệu mới về, sau đó về form Quản lý dữ liệu, rồi về menu chính ở màn hình ngang bị lỗi load từ (Hiển thị kí tự loằng ngoằng) =&gt; Luôn mở lại dữ liệu khi thoát khỏi hộp thoại 'Danh sách từ điển"</t>
+  </si>
+  <si>
+    <t>NOT CHECK</t>
+  </si>
+  <si>
+    <t>Hỗ trợ báo thiếu dữ liệu</t>
+  </si>
+  <si>
+    <t>Hỗ trợ chuyển đổi dữ liệu ngữ pháp ngay trong giao diện xem ngữ pháp</t>
+  </si>
+  <si>
+    <t>Hỗ trợ chuyển đổi từ điển ngay trong trong giao diện tra từ</t>
+  </si>
+  <si>
+    <t>Hỗ trợ tra từ từ ứng dụng khác</t>
+  </si>
+  <si>
+    <t>Con phan server</t>
+  </si>
+  <si>
+    <t>Hỗ trợ một số thẻ nhớ dạng Removeable đồng thời sửa lại giao diện remove dữ liệu</t>
   </si>
 </sst>
 </file>
@@ -358,65 +385,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E48"/>
+  <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -725,17 +752,18 @@
     <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="25.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -783,13 +811,13 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="23">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -800,9 +828,9 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
@@ -828,13 +856,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="25">
+      <c r="A10" s="28">
         <v>5</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -845,9 +873,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="26"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="12" t="s">
         <v>30</v>
       </c>
@@ -856,9 +884,9 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="26"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
@@ -867,9 +895,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="26"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="26"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="12" t="s">
         <v>29</v>
       </c>
@@ -878,9 +906,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="105">
-      <c r="A14" s="26"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
@@ -889,9 +917,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="75">
-      <c r="A15" s="26"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="12" t="s">
         <v>8</v>
       </c>
@@ -900,9 +928,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60">
-      <c r="A16" s="26"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="12" t="s">
         <v>23</v>
       </c>
@@ -911,9 +939,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="26"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="12" t="s">
         <v>20</v>
       </c>
@@ -922,9 +950,9 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="26"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="12" t="s">
         <v>22</v>
       </c>
@@ -933,9 +961,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105">
-      <c r="A19" s="26"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="12" t="s">
         <v>24</v>
       </c>
@@ -944,9 +972,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="26"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="12" t="s">
         <v>26</v>
       </c>
@@ -955,9 +983,9 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="26"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="12" t="s">
         <v>27</v>
       </c>
@@ -966,9 +994,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="60">
-      <c r="A22" s="26"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="26"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="12" t="s">
         <v>32</v>
       </c>
@@ -977,9 +1005,9 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="27"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="12" t="s">
         <v>28</v>
       </c>
@@ -994,7 +1022,7 @@
       <c r="B24" s="21">
         <v>1.9</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -1005,9 +1033,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="30">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="15" t="s">
         <v>34</v>
       </c>
@@ -1016,9 +1044,9 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="15" t="s">
         <v>35</v>
       </c>
@@ -1030,10 +1058,10 @@
       <c r="A27" s="21">
         <v>7</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="24" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -1044,9 +1072,9 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="3" t="s">
         <v>40</v>
       </c>
@@ -1055,9 +1083,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="30">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="15" t="s">
         <v>41</v>
       </c>
@@ -1066,9 +1094,9 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="3" t="s">
         <v>42</v>
       </c>
@@ -1077,9 +1105,9 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="18"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="3" t="s">
         <v>43</v>
       </c>
@@ -1088,158 +1116,223 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8">
+      <c r="A32" s="21">
+        <v>8</v>
+      </c>
+      <c r="B32" s="21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="32" t="s">
+      <c r="C32" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="32" t="s">
+      <c r="E32" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="32" t="s">
+      <c r="E33" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="34" t="s">
+      <c r="E34" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="35" t="s">
+      <c r="E35" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8"/>
+      <c r="E36" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8">
+        <v>9</v>
+      </c>
       <c r="B37" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="8"/>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45">
+      <c r="E37" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="60">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="D39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="60">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="D40" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="D41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="D42" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="D43" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="D44" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="3"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="3"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="3"/>
       <c r="E48" s="8"/>
     </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B7:B8"/>

--- a/mdictpro/version/MDictPro_Version.xlsx
+++ b/mdictpro/version/MDictPro_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>STT</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Hỗ trợ dấu xuống dòng</t>
   </si>
   <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
     <t>02/04/2014</t>
   </si>
   <si>
@@ -195,25 +192,43 @@
     <t>Fix lỗi khi download dữ liệu mới về, sau đó về form Quản lý dữ liệu, rồi về menu chính ở màn hình ngang bị lỗi load từ (Hiển thị kí tự loằng ngoằng) =&gt; Luôn mở lại dữ liệu khi thoát khỏi hộp thoại 'Danh sách từ điển"</t>
   </si>
   <si>
-    <t>NOT CHECK</t>
-  </si>
-  <si>
     <t>Hỗ trợ báo thiếu dữ liệu</t>
   </si>
   <si>
-    <t>Hỗ trợ chuyển đổi dữ liệu ngữ pháp ngay trong giao diện xem ngữ pháp</t>
-  </si>
-  <si>
     <t>Hỗ trợ chuyển đổi từ điển ngay trong trong giao diện tra từ</t>
   </si>
   <si>
     <t>Hỗ trợ tra từ từ ứng dụng khác</t>
   </si>
   <si>
-    <t>Con phan server</t>
-  </si>
-  <si>
     <t>Hỗ trợ một số thẻ nhớ dạng Removeable đồng thời sửa lại giao diện remove dữ liệu</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>16/07/2014</t>
+  </si>
+  <si>
+    <t>Đổi ID Admob sang ID mới</t>
+  </si>
+  <si>
+    <t>Phím Soft Menu luôn luôn hiển thị Popup menu của ứng dụng.</t>
+  </si>
+  <si>
+    <t>Mới cập nhật, phiên bản 2.2.3 sẽ được apply</t>
+  </si>
+  <si>
+    <t>Có lỗi xử lý, đã sửa sẽ apply ở phiên bản 2.2.3</t>
+  </si>
+  <si>
+    <t>Thêm nút Detail App trong hộp thoại About. Sửa để hộp thoại này có Scroll</t>
+  </si>
+  <si>
+    <t>Sửa lỗi khi kích vào nút "Other Apps" thì không hiển thị được sản phẩm, do đổi tên DaoThang =&gt; MobileSoftVn</t>
   </si>
 </sst>
 </file>
@@ -400,18 +415,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,12 +459,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F50"/>
+  <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:D44"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -757,13 +772,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -811,13 +826,13 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="26">
+      <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -828,9 +843,9 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
@@ -856,13 +871,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="28">
+      <c r="A10" s="30">
         <v>5</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -873,9 +888,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="29"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="12" t="s">
         <v>30</v>
       </c>
@@ -884,9 +899,9 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
@@ -895,9 +910,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="12" t="s">
         <v>29</v>
       </c>
@@ -906,9 +921,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="105">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
@@ -917,9 +932,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="75">
-      <c r="A15" s="29"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="12" t="s">
         <v>8</v>
       </c>
@@ -928,9 +943,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="12" t="s">
         <v>23</v>
       </c>
@@ -939,9 +954,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="12" t="s">
         <v>20</v>
       </c>
@@ -950,9 +965,9 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="12" t="s">
         <v>22</v>
       </c>
@@ -961,9 +976,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="12" t="s">
         <v>24</v>
       </c>
@@ -972,9 +987,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="12" t="s">
         <v>26</v>
       </c>
@@ -983,9 +998,9 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="29"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="12" t="s">
         <v>27</v>
       </c>
@@ -994,9 +1009,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="60">
-      <c r="A22" s="29"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="12" t="s">
         <v>32</v>
       </c>
@@ -1005,9 +1020,9 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="30"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="30"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="12" t="s">
         <v>28</v>
       </c>
@@ -1016,13 +1031,13 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="21">
+      <c r="A24" s="26">
         <v>6</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="26">
         <v>1.9</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -1055,13 +1070,13 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="21">
-        <v>7</v>
-      </c>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="26">
+        <v>7</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="21" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -1073,7 +1088,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="22"/>
-      <c r="B28" s="34"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="22"/>
       <c r="D28" s="3" t="s">
         <v>40</v>
@@ -1084,7 +1099,7 @@
     </row>
     <row r="29" spans="1:5" ht="30">
       <c r="A29" s="22"/>
-      <c r="B29" s="34"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="22"/>
       <c r="D29" s="15" t="s">
         <v>41</v>
@@ -1095,7 +1110,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="22"/>
-      <c r="B30" s="34"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="22"/>
       <c r="D30" s="3" t="s">
         <v>42</v>
@@ -1106,7 +1121,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="23"/>
-      <c r="B31" s="35"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="23"/>
       <c r="D31" s="3" t="s">
         <v>43</v>
@@ -1116,14 +1131,14 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="21">
+      <c r="A32" s="26">
         <v>8</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="26">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>53</v>
+      <c r="C32" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>45</v>
@@ -1177,13 +1192,15 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="8">
+      <c r="A37" s="26">
         <v>9</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="8"/>
+      <c r="B37" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="D37" s="20" t="s">
         <v>50</v>
       </c>
@@ -1192,126 +1209,128 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="F38" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="60">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="60">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="E40" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="60">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="1" t="s">
-        <v>61</v>
+      <c r="E41" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="24"/>
       <c r="D42" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="44" spans="1:6" ht="30">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="8"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="C47" s="8"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5">
@@ -1328,11 +1347,21 @@
       <c r="D50" s="3"/>
       <c r="E50" s="8"/>
     </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C46"/>
+    <mergeCell ref="B37:B46"/>
+    <mergeCell ref="A37:A46"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B7:B8"/>
